--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426254.927113098</v>
+        <v>3426254.927113044</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500289</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500289</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.3405017707</v>
+        <v>3940022.790763401</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.3405017707</v>
+        <v>3940022.790763401</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494146826.703394</v>
+        <v>56586889.23296171</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +679,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H2" t="n">
         <v>347.8590406130752</v>
@@ -721,7 +721,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U2" t="n">
-        <v>647.3630829089011</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V2" t="n">
         <v>629.8510241668239</v>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D5" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E5" t="n">
         <v>404.3632896068686</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C8" t="n">
         <v>449.4745782429939</v>
@@ -1192,7 +1192,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
-        <v>559.5765741191534</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
@@ -1220,7 +1220,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C9" t="n">
-        <v>361.0999124455193</v>
+        <v>359.5662124879463</v>
       </c>
       <c r="D9" t="n">
         <v>347.9376868977026</v>
@@ -1286,7 +1286,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y9" t="n">
-        <v>397.8576928085607</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.6204767758302</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S12" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4956611600225</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1666,7 +1666,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
@@ -1806,31 +1806,31 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F17" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G17" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4706963203676</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I19" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963202523</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>165.2127885434264</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963202523</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129554035</v>
+        <v>481.9993129553962</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428229</v>
+        <v>449.4745782428157</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557396788</v>
+        <v>410.3391557396715</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896066977</v>
+        <v>404.3632896066904</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287078409</v>
+        <v>404.8896287078336</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054526744</v>
+        <v>397.8840054526671</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406129042</v>
+        <v>347.8590406128969</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>359.6204767779011</v>
+        <v>359.6204767778156</v>
       </c>
       <c r="T29" t="n">
-        <v>560.96491841181</v>
+        <v>560.9649184118027</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272017061</v>
+        <v>648.7514272016988</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241666529</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W29" t="n">
-        <v>638.3734759807766</v>
+        <v>638.3734759807693</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334604967</v>
+        <v>592.2818334604895</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326826354</v>
+        <v>511.3174326826281</v>
       </c>
     </row>
     <row r="30">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822414711</v>
+        <v>350.6276822415143</v>
       </c>
       <c r="S30" t="n">
         <v>408.192915058951</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4706963217154</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3210,52 +3210,52 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.4706963206741</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U35" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V35" t="n">
         <v>629.8510241668239</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>350.6276822404653</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3447,49 +3447,49 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>480.6109686631734</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
         <v>449.4745782429939</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3638,7 +3638,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013773</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3684,49 +3684,49 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
-        <v>448.0862339505931</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013773</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3921,49 +3921,49 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>590.8934891676798</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
         <v>511.3174326828064</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404653</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="H46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
         <v>492.3327682960356</v>
@@ -4333,55 +4333,55 @@
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1765.421978263786</v>
+        <v>1713.790319599031</v>
       </c>
       <c r="L2" t="n">
-        <v>3071.357825473567</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M2" t="n">
-        <v>3553.537024987069</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N2" t="n">
-        <v>4118.580088859741</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O2" t="n">
-        <v>5028.734971800485</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P2" t="n">
-        <v>5864.602299897899</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,49 +4470,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4524,22 +4524,22 @@
         <v>140.96</v>
       </c>
       <c r="T4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4576,49 +4576,49 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K5" t="n">
-        <v>2550.716641651425</v>
+        <v>2153.765102156982</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010445</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523947</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396619</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337363</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434777</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4725,10 +4725,10 @@
         <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J7" t="n">
         <v>440.0999956178874</v>
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2580.161715518836</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2126.146990020863</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1711.662994324045</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.215227044379</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>894.2358041069938</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>492.3327682960388</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397736</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154257</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>2124.714952431133</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.35782547372</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987223</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.580088859895</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800639</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299898052</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362237152</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000156</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183333</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.115762436713</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515625</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
-        <v>4826.59813479156</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W8" t="n">
-        <v>4181.776441881512</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X8" t="n">
-        <v>3583.511963638413</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3067.029708403255</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="9">
@@ -4865,76 +4865,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2287.112034235907</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C9" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F9" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H9" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J9" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K9" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L9" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M9" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N9" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O9" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P9" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q9" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R9" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S9" t="n">
-        <v>5157.673230555789</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T9" t="n">
-        <v>4761.015482194282</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U9" t="n">
-        <v>4356.97142716684</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V9" t="n">
-        <v>3938.273783539042</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W9" t="n">
-        <v>3501.533235145275</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X9" t="n">
-        <v>3077.429457927712</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y9" t="n">
-        <v>2675.553000545327</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="10">
@@ -4944,76 +4944,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9600000000032</v>
+        <v>177.2942414961738</v>
       </c>
       <c r="C10" t="n">
-        <v>140.9600000000032</v>
+        <v>177.2942414961738</v>
       </c>
       <c r="D10" t="n">
-        <v>166.2524130292416</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E10" t="n">
-        <v>166.2524130292416</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F10" t="n">
-        <v>290.613385621177</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G10" t="n">
-        <v>290.613385621177</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H10" t="n">
-        <v>290.613385621177</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I10" t="n">
-        <v>290.613385621177</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178906</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104967</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q10" t="n">
-        <v>351.2038120028219</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>140.9600000000032</v>
+        <v>177.2942414961738</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.9600000000032</v>
+        <v>177.2942414961738</v>
       </c>
     </row>
     <row r="11">
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518836</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020863</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324045</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044379</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069938</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960388</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397736</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735721</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>2153.765102157141</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L11" t="n">
-        <v>3071.357825473724</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M11" t="n">
-        <v>3553.537024987227</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N11" t="n">
-        <v>4118.580088859899</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O11" t="n">
-        <v>5028.734971800643</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299898056</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362237156</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155886</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.115762436713</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515625</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.59813479156</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881512</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.511963638413</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403255</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5102,76 +5102,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C12" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D12" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E12" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F12" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H12" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I12" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K12" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L12" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M12" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N12" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O12" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P12" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q12" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5569.989306372911</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S12" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T12" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U12" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V12" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W12" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X12" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y12" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="13">
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546288</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048314</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351496</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071831</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361344454</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960388</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397736</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154257</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.714952431133</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010602</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577524105</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396777</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337521</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434934</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362237156</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464164</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922543076</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766819012</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908964</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665865</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430707</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5339,76 +5339,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C15" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D15" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E15" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F15" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G15" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H15" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I15" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J15" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K15" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L15" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M15" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N15" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O15" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P15" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q15" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T15" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U15" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V15" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W15" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X15" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y15" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="16">
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546405</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048431</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351613</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071948</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361345618</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003236068</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397736</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735721</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1901.586501346753</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L17" t="n">
-        <v>2819.179224663336</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M17" t="n">
-        <v>3301.358424176839</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N17" t="n">
-        <v>3866.401488049511</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O17" t="n">
-        <v>4776.556370990254</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852435051</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362237272</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000276</v>
+        <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183453</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.71339446428</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922543193</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766819128</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.37407390908</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665981</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430823</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5576,76 +5576,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C18" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D18" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E18" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F18" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H18" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I18" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K18" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L18" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M18" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N18" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O18" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P18" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q18" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W18" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X18" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y18" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="19">
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E19" t="n">
-        <v>239.3480243885975</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F19" t="n">
-        <v>239.3480243885975</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G19" t="n">
-        <v>239.3480243885975</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H19" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="I19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351496</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071831</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361344454</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003234904</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397736</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>1101.367131735721</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>2550.716641651429</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L20" t="n">
-        <v>3468.309364968011</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M20" t="n">
-        <v>3950.488564481514</v>
+        <v>3301.358424176565</v>
       </c>
       <c r="N20" t="n">
-        <v>4515.531628354186</v>
+        <v>3866.401488049237</v>
       </c>
       <c r="O20" t="n">
-        <v>5425.68651129493</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P20" t="n">
-        <v>6261.553839392343</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362237156</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000159</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5813,76 +5813,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C21" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D21" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E21" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F21" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H21" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I21" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K21" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L21" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M21" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N21" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O21" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P21" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q21" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T21" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U21" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V21" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W21" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X21" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y21" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="22">
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H22" t="n">
-        <v>140.9600000000032</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351496</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071831</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361344454</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003234904</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397736</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154257</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>2124.714952431133</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L23" t="n">
-        <v>3042.307675747716</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M23" t="n">
-        <v>3524.486875261219</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N23" t="n">
-        <v>4089.529939133891</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O23" t="n">
-        <v>4999.684822074635</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434934</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237156</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C24" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E24" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H24" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I24" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K24" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L24" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M24" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N24" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O24" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P24" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q24" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W24" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X24" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y24" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="25">
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E25" t="n">
-        <v>239.3480243885975</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F25" t="n">
-        <v>239.3480243885975</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G25" t="n">
-        <v>239.3480243885975</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H25" t="n">
-        <v>239.3480243885975</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6232,52 +6232,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K26" t="n">
-        <v>2124.71495243113</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L26" t="n">
-        <v>3042.307675747712</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M26" t="n">
-        <v>3524.486875261216</v>
+        <v>3950.48856448151</v>
       </c>
       <c r="N26" t="n">
-        <v>4089.529939133888</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O26" t="n">
-        <v>5028.734971800485</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P26" t="n">
-        <v>5864.602299897899</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6393,34 +6393,34 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N28" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O28" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P28" t="n">
-        <v>293.2980670266921</v>
+        <v>140.96</v>
       </c>
       <c r="Q28" t="n">
-        <v>293.2980670266921</v>
+        <v>140.96</v>
       </c>
       <c r="R28" t="n">
-        <v>293.2980670266921</v>
+        <v>140.96</v>
       </c>
       <c r="S28" t="n">
-        <v>293.2980670266921</v>
+        <v>140.96</v>
       </c>
       <c r="T28" t="n">
-        <v>293.2980670266921</v>
+        <v>140.96</v>
       </c>
       <c r="U28" t="n">
         <v>140.96</v>
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715517797</v>
+        <v>2580.161715517753</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990019996</v>
+        <v>2126.14699001996</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994323351</v>
+        <v>1711.662994323322</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227043858</v>
+        <v>1303.215227043836</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041066451</v>
+        <v>894.2358041066304</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682958629</v>
+        <v>492.3327682958555</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6475,46 +6475,46 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>3159.388586083262</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M29" t="n">
-        <v>3641.567785596765</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N29" t="n">
-        <v>4845.157279159623</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O29" t="n">
-        <v>5755.312162100367</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P29" t="n">
-        <v>6591.17949019778</v>
+        <v>6175.514118919006</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6684.746993153637</v>
+        <v>6684.746993153722</v>
       </c>
       <c r="T29" t="n">
-        <v>6118.115762434637</v>
+        <v>6118.115762434729</v>
       </c>
       <c r="U29" t="n">
-        <v>5462.811290513721</v>
+        <v>5462.811290513821</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.59813478983</v>
+        <v>4826.598134789757</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441879954</v>
+        <v>4181.776441879889</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.511963637029</v>
+        <v>3583.51196363697</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708402044</v>
+        <v>3067.029708401992</v>
       </c>
     </row>
     <row r="30">
@@ -6548,28 +6548,28 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295150981</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213248</v>
+        <v>1250.415257213432</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374655</v>
+        <v>2197.270784374846</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117684</v>
+        <v>3071.633876117705</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215988</v>
+        <v>4014.06020421584</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182895</v>
+        <v>4993.313206182755</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775369382</v>
+        <v>5699.926775369418</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250731</v>
+        <v>5925.707874250775</v>
       </c>
       <c r="R30" t="n">
         <v>5571.538498249245</v>
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H31" t="n">
         <v>140.96</v>
@@ -6630,49 +6630,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.75934754776</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622049786</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626352968</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859073303</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361359169</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
-        <v>490.930400324962</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H32" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397673</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154194</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>2124.714952431127</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378012075</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577525577</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641398249</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524338993</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852436407</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362238628</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.000000001632</v>
+        <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625184809</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394465636</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922544548</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766820483</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073910435</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595667336</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340432178</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.1120342359</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927295</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.912438939717</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.779007402431</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500301</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448375</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546847</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I33" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149185</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213076</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374314</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117173</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.060204215307</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182045</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368533</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249712</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372905</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432119</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070612</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.52061904317</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415372</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021606</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804043</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545321</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893165</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893165</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893165</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893165</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893165</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893165</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967104</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893165</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893165</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893165</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546723</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048749</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351931</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859072266</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361348801</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003239251</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>140.9600000000119</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>599.777145475664</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1339.420289043503</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3083.80028904365</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>3565.979488557153</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641397212</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337956</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.29585243537</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362237592</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000595</v>
+        <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183772</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464599</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922543511</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766819446</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073909398</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595666299</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340431141</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.112034235915</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.36464792731</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.912438939732</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.779007402446</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500451</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448525</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546997</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I36" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149335</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.415257213091</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374329</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117188</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.060204215322</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.31320618206</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368547</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249727</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5571.538498249257</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432134</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070628</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043185</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415387</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021621</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804058</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.553000545336</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967254</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518845</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020871</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324053</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044388</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041070024</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960474</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397823</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154344</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083273</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L38" t="n">
-        <v>2631.383042916209</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.23057752454</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641397212</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337956</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.29585243537</v>
+        <v>5987.71793717156</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362237592</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000595</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183772</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464599</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922543511</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766819446</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073909398</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595666299</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340431141</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235915</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.36464792731</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.912438939732</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402446</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500451</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448525</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546997</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I39" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149335</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213091</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374329</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117188</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.060204215322</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.31320618206</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368547</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249727</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.98930637292</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432134</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070628</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043185</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415387</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021621</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804058</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545336</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="I40" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967254</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546723</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020871</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324053</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044388</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041070024</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960474</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397823</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.36713173573</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>2550.716641651437</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378011038</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.23057752454</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641397212</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337956</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.29585243537</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362237592</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000000595</v>
+        <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183772</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464599</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922543511</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766819446</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073909398</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595666299</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340431141</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235915</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.36464792731</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.912438939732</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402446</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500451</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448525</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546997</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149335</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213091</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374329</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117188</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.060204215322</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.31320618206</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368547</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249727</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.98930637292</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432134</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070628</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043185</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415387</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021621</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804058</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545336</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967254</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,52 +7630,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518845</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020871</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324053</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044388</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041070024</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960474</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H44" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397823</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154344</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>2053.555015773301</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L44" t="n">
-        <v>3797.935015773448</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M44" t="n">
-        <v>4280.114215286951</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N44" t="n">
-        <v>4845.157279159623</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O44" t="n">
-        <v>5755.312162100367</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P44" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q44" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R44" t="n">
         <v>7048.000000000002</v>
@@ -7696,10 +7696,10 @@
         <v>4180.374073908805</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.511963638422</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403264</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235915</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.36464792731</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.912438939732</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.779007402446</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500451</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448525</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546997</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149335</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213091</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374329</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117188</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.060204215322</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.31320618206</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368547</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249727</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249257</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432134</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070628</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043185</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415387</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021621</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804058</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545336</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G46" t="n">
-        <v>307.8416045893315</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9600000000119</v>
+        <v>140.96</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967254</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893315</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>301.7997308240091</v>
       </c>
       <c r="L2" t="n">
-        <v>392.2657817103004</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8224,10 +8224,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="L5" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>29.34358558182248</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8473,13 +8473,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q8" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8695,10 +8695,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>315.913966518769</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8713,10 +8713,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>645.1956588512423</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8938,7 +8938,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>645.1956588513995</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>645.1956588512423</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>61.18810711433662</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>870.5779326741233</v>
+        <v>301.7997308240085</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>491.4928437002193</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,10 +9424,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.8909222652434</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>301.7997308240087</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>645.1956588513992</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
         <v>716.8751175230994</v>
@@ -9892,16 +9892,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>214.890922265086</v>
       </c>
       <c r="O26" t="n">
-        <v>29.34358558167037</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10123,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>835.1386633165835</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N29" t="n">
-        <v>644.9963936264498</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10138,10 +10138,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>301.7997308240091</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>645.1956588528938</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>645.1956588512423</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>835.1386633167313</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>603.2839282498865</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>746.218703104767</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>301.7997308245979</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>491.4928437002173</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11065,13 +11065,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>491.4928437002177</v>
       </c>
       <c r="L41" t="n">
-        <v>214.8909222656744</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11305,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>644.99639362629</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>835.1386633167315</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>645.1956588512442</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292824343</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S12" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.388344292822865</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>2.808139187274691</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O16" t="n">
         <v>268.0582198167198</v>
@@ -23718,7 +23718,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23749,13 +23749,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292707643</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E19" t="n">
-        <v>213.1722604382385</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F19" t="n">
         <v>274.3828559677419</v>
@@ -23913,10 +23913,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292822865</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884794</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292822865</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E25" t="n">
-        <v>213.1722604382385</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F25" t="n">
         <v>274.3828559677419</v>
@@ -24387,10 +24387,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24642,13 +24642,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>153.6228255436998</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O28" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P28" t="n">
-        <v>368.8061924102448</v>
+        <v>203.5934038668184</v>
       </c>
       <c r="Q28" t="n">
         <v>505.228266425598</v>
@@ -24663,7 +24663,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.388344290582438</v>
+        <v>1.388344290660712</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.533699956568569</v>
+        <v>1.533699956525311</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -24912,7 +24912,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.2525643060359</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="32">
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344291359715</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.38834429240103</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.533699957574299</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25377,7 +25377,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.388344292401143</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957573617</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25614,7 +25614,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.388344292400802</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957573617</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25936,7 +25936,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.388344292987881</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.533699957574299</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26043,10 +26043,10 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G46" t="n">
-        <v>242.4092826775956</v>
+        <v>77.1964941341692</v>
       </c>
       <c r="H46" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15096.00000993379</v>
+        <v>1240465.351388876</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30103.21645018751</v>
+        <v>2468357.965713155</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45110.43289044128</v>
+        <v>3696250.580037436</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62191.16103297022</v>
+        <v>4796092.45366189</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79271.88917549913</v>
+        <v>5895934.327286342</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96352.61731802809</v>
+        <v>6995776.200910787</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113433.345460557</v>
+        <v>8095618.074535231</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130514.0736030859</v>
+        <v>9195459.948159674</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147594.8017456149</v>
+        <v>10295301.82178412</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164675.5298881428</v>
+        <v>11395143.69540879</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181756.2580306718</v>
+        <v>12494985.56903323</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198836.9861732007</v>
+        <v>13594827.44265768</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>215917.7143157297</v>
+        <v>14694669.31628215</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232998.4424582589</v>
+        <v>15794511.18990661</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250079.1706007881</v>
+        <v>16894353.06353107</v>
       </c>
     </row>
   </sheetData>
@@ -26328,40 +26328,40 @@
         <v>976017.2062577608</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630344</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630344</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630414</v>
+        <v>874233.2841630246</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630343</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="I2" t="n">
-        <v>874233.2841630342</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="J2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="K2" t="n">
+        <v>874233.2841632022</v>
+      </c>
+      <c r="L2" t="n">
+        <v>874233.284163025</v>
+      </c>
+      <c r="M2" t="n">
+        <v>874233.284163025</v>
+      </c>
+      <c r="N2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="O2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="P2" t="n">
         <v>874233.2841630249</v>
-      </c>
-      <c r="K2" t="n">
-        <v>874233.2841632055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874233.2841631247</v>
-      </c>
-      <c r="M2" t="n">
-        <v>874233.2841630601</v>
-      </c>
-      <c r="N2" t="n">
-        <v>874233.2841630604</v>
-      </c>
-      <c r="O2" t="n">
-        <v>874233.2841630602</v>
-      </c>
-      <c r="P2" t="n">
-        <v>874233.284163024</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.384614733979106e-08</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620223.9999999863</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.602931534871459e-08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163511</v>
+        <v>89075.80382163521</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715399</v>
+        <v>88773.85276715407</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209721488</v>
+        <v>88471.49209722105</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850414</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="J4" t="n">
+        <v>13783.46259850302</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13783.46259862997</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13783.46259850302</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13783.46259850301</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13783.46259850301</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13783.46259850301</v>
+      </c>
+      <c r="P4" t="n">
         <v>13783.46259850303</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13783.46259863231</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13783.46259850979</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13783.46259850543</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13783.46259850543</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13783.46259850543</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13783.46259850297</v>
       </c>
     </row>
     <row r="5">
@@ -26481,22 +26481,22 @@
         <v>172607</v>
       </c>
       <c r="D5" t="n">
-        <v>172607.0000000024</v>
+        <v>172607</v>
       </c>
       <c r="E5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="F5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="G5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="H5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="J5" t="n">
         <v>138979.4</v>
@@ -26505,19 +26505,19 @@
         <v>138979.4</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.3999999976</v>
+        <v>138979.4</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.400000009</v>
+        <v>138979.4</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.400000009</v>
+        <v>138979.4</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.400000009</v>
+        <v>138979.4</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.400000009</v>
+        <v>138979.4</v>
       </c>
     </row>
     <row r="6">
@@ -26533,43 +26533,43 @@
         <v>714636.3534906066</v>
       </c>
       <c r="D6" t="n">
-        <v>714938.7141605297</v>
+        <v>714938.7141605397</v>
       </c>
       <c r="E6" t="n">
-        <v>721470.4215645284</v>
+        <v>721470.4215645217</v>
       </c>
       <c r="F6" t="n">
-        <v>721470.4215645284</v>
+        <v>721470.4215645219</v>
       </c>
       <c r="G6" t="n">
-        <v>721470.4215645348</v>
+        <v>721470.4215645216</v>
       </c>
       <c r="H6" t="n">
-        <v>721470.4215645283</v>
+        <v>721470.4215645219</v>
       </c>
       <c r="I6" t="n">
-        <v>721470.4215645281</v>
+        <v>721470.4215645217</v>
       </c>
       <c r="J6" t="n">
-        <v>101246.4215645356</v>
+        <v>101246.4215645217</v>
       </c>
       <c r="K6" t="n">
-        <v>721470.4215645732</v>
+        <v>721470.4215645723</v>
       </c>
       <c r="L6" t="n">
-        <v>721470.4215646174</v>
+        <v>721470.421564522</v>
       </c>
       <c r="M6" t="n">
-        <v>721470.4215644796</v>
+        <v>721470.421564522</v>
       </c>
       <c r="N6" t="n">
-        <v>721470.4215645459</v>
+        <v>721470.4215645217</v>
       </c>
       <c r="O6" t="n">
-        <v>721470.4215645457</v>
+        <v>721470.4215645217</v>
       </c>
       <c r="P6" t="n">
-        <v>721470.421564512</v>
+        <v>721470.4215645219</v>
       </c>
     </row>
   </sheetData>
@@ -26925,22 +26925,22 @@
         <v>1762</v>
       </c>
       <c r="D4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="E4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="F4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="G4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="H4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="I4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="J4" t="n">
         <v>1762</v>
@@ -26949,19 +26949,19 @@
         <v>1762</v>
       </c>
       <c r="L4" t="n">
-        <v>1761.999999999961</v>
+        <v>1762</v>
       </c>
       <c r="M4" t="n">
-        <v>1762.000000000149</v>
+        <v>1762</v>
       </c>
       <c r="N4" t="n">
-        <v>1762.000000000149</v>
+        <v>1762</v>
       </c>
       <c r="O4" t="n">
-        <v>1762.000000000149</v>
+        <v>1762</v>
       </c>
       <c r="P4" t="n">
-        <v>1762.000000000149</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,28 +27144,28 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.223337312440642e-11</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1761.999999999968</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27174,7 +27174,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.804810095133937e-10</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.933564585167915e-11</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27565,7 +27565,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.38834429297583</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27699,7 +27699,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
@@ -27720,7 +27720,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T4" t="n">
-        <v>349.9327172413397</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U4" t="n">
         <v>150.8146863564251</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27921,13 +27921,13 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H7" t="n">
-        <v>205.3472244622743</v>
+        <v>356.512260443258</v>
       </c>
       <c r="I7" t="n">
         <v>97.40414414470841</v>
       </c>
       <c r="J7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.388344292827583</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.53369995757356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28146,13 +28146,13 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D10" t="n">
-        <v>311.0841100042811</v>
+        <v>400</v>
       </c>
       <c r="E10" t="n">
         <v>280.9809048369565</v>
       </c>
       <c r="F10" t="n">
-        <v>400</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G10" t="n">
         <v>242.4092826775956</v>
@@ -28206,7 +28206,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X10" t="n">
-        <v>247.4436454301076</v>
+        <v>284.1448994666467</v>
       </c>
       <c r="Y10" t="n">
         <v>287.4653528494624</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,28 +29744,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="K30" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.709850039333106e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -34825,19 +34825,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.1142864321607</v>
+        <v>1048.91401725617</v>
       </c>
       <c r="L2" t="n">
-        <v>1319.127118393717</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M2" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N2" t="n">
         <v>570.7505695683558</v>
@@ -34849,7 +34849,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34995,7 +34995,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35016,7 +35016,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -35068,10 +35068,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>1063.028252950772</v>
       </c>
       <c r="L5" t="n">
-        <v>1141.752258948505</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35086,7 +35086,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35217,13 +35217,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
         <v>17.57070160869296</v>
@@ -35305,10 +35305,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>956.2049222652395</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35317,13 +35317,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>919.3483666068121</v>
+        <v>1410.84121030703</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q8" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35442,13 +35442,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>25.54789194872562</v>
+        <v>114.4637819444445</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>125.6171440322581</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -35502,7 +35502,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>36.70125403653914</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -35539,10 +35539,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1063.02825295093</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L11" t="n">
         <v>926.861336683417</v>
@@ -35557,10 +35557,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1489.506091272872</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35779,10 +35779,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.989403955261</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.056995534817</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35794,7 +35794,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1489.506091272872</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36013,16 +36013,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>808.3023935464973</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36031,7 +36031,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1714.888365095753</v>
+        <v>1146.110163245639</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36250,16 +36250,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>978.5425401785049</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36268,10 +36268,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>676.3257806513258</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36490,22 +36490,22 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>872.5503003923645</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1489.506091273029</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36724,7 +36724,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
         <v>1463.98940395526</v>
@@ -36736,16 +36736,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>570.7505695683558</v>
+        <v>785.6414918334417</v>
       </c>
       <c r="O26" t="n">
-        <v>948.6919521884824</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36967,13 +36967,13 @@
         <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N29" t="n">
-        <v>1215.746963194806</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
@@ -36982,10 +36982,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>763.2345892100915</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37040,28 +37040,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156716381</v>
+        <v>422.1086156718163</v>
       </c>
       <c r="K30" t="n">
-        <v>698.5532603013397</v>
+        <v>698.553260301347</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244054619</v>
+        <v>956.4197244054692</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421646752</v>
+        <v>883.1950421645042</v>
       </c>
       <c r="N30" t="n">
-        <v>951.9457859578824</v>
+        <v>951.9457859577115</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464312193</v>
+        <v>989.1444464312266</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799863513</v>
+        <v>713.7510799865296</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160417669</v>
+        <v>228.0617160417742</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37201,10 +37201,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.989403955261</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>1572.056995536311</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,7 +37216,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1489.506091272872</v>
       </c>
       <c r="Q32" t="n">
         <v>461.4348583860824</v>
@@ -37432,31 +37432,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1762.000000000148</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>1174.034497818242</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1590.529135526397</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37675,13 +37675,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>1228.661067508015</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>952.9277020862996</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37909,13 +37909,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>1238.607130132378</v>
       </c>
       <c r="L41" t="n">
-        <v>1141.752258949092</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37927,7 +37927,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
@@ -38149,16 +38149,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1392.110680058451</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>1762.000000000149</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1215.9462284196</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
